--- a/src/test/resources/assertConfirmation/assertConfirmation.xlsx
+++ b/src/test/resources/assertConfirmation/assertConfirmation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\assertConfirmation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF32D1E3-FB4F-4EF7-8233-A9E98B9C761A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70580A1F-5AAC-4811-AF81-07132BC74BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>open</t>
   </si>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>{"target":"Hello, World!"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chooseOkOnNextConfirmation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -717,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -728,13 +732,15 @@
     <col min="1" max="1" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.19921875" style="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -745,16 +751,22 @@
         <v>5</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -762,23 +774,27 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="7"/>
+      <c r="H3" s="8">
         <v>2000</v>
       </c>
     </row>
